--- a/biology/Médecine/Molsidomine/Molsidomine.xlsx
+++ b/biology/Médecine/Molsidomine/Molsidomine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Molsidomine est un antiangoreux de la classe des iminosydnone, dénué d'effets dépresseurs sur la contractilité, la conduction et la fréquence cardiaque, ayant un mécanisme d'action voisin de celui des dérivés nitrés (tels que les isosorbides mononitrate et dinitrate, la trinitrine...), mais sans effets d'accoutumance significatifs, se manifestant par :
